--- a/Selenium/Bugs/data/style/섹시한.xlsx
+++ b/Selenium/Bugs/data/style/섹시한.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="611">
   <si>
     <t>Title</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Mad About You</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>Him &amp; I</t>
   </si>
   <si>
     <t>Starring Role</t>
@@ -232,7 +232,7 @@
     <t>Mad Hatter</t>
   </si>
   <si>
-    <t>Thirteen Thirtyfive (Live at Haus Der Berliner Festspiele)</t>
+    <t xml:space="preserve">Thirteen Thirtyfive (Live at Haus Der Berliner Festspiele) </t>
   </si>
   <si>
     <t>Antisocial</t>
@@ -331,7 +331,7 @@
     <t>Save Me from Myself</t>
   </si>
   <si>
-    <t>Love Is a Bitch</t>
+    <t xml:space="preserve">Love Is a Bitch </t>
   </si>
   <si>
     <t>Baby Blue</t>
@@ -340,7 +340,7 @@
     <t>Too Fast</t>
   </si>
   <si>
-    <t>Searchin</t>
+    <t xml:space="preserve">Searchin </t>
   </si>
   <si>
     <t>Do You Have A Little Time</t>
@@ -352,7 +352,7 @@
     <t>Think Twice</t>
   </si>
   <si>
-    <t>Baby Now</t>
+    <t xml:space="preserve">Baby Now </t>
   </si>
   <si>
     <t>Good Times Gonna Come (Marius de Vries Mix)</t>
@@ -367,7 +367,7 @@
     <t>Glory Box</t>
   </si>
   <si>
-    <t>Eyes On Fire</t>
+    <t xml:space="preserve">Eyes On Fire </t>
   </si>
   <si>
     <t>Playaplayaplaya</t>
@@ -457,6 +457,9 @@
     <t>Say So</t>
   </si>
   <si>
+    <t>Lola</t>
+  </si>
+  <si>
     <t>Kings &amp; Queens (MOTi Remix)</t>
   </si>
   <si>
@@ -469,6 +472,9 @@
     <t>Boss Bitch</t>
   </si>
   <si>
+    <t>Good In Goodbye</t>
+  </si>
+  <si>
     <t>Boyfriend</t>
   </si>
   <si>
@@ -502,6 +508,9 @@
     <t>May Be</t>
   </si>
   <si>
+    <t>With Me</t>
+  </si>
+  <si>
     <t>Close (feat. Tove Lo)</t>
   </si>
   <si>
@@ -514,6 +523,9 @@
     <t>Fantasy</t>
   </si>
   <si>
+    <t>Do It Well</t>
+  </si>
+  <si>
     <t>Young And Beautiful</t>
   </si>
   <si>
@@ -628,6 +640,9 @@
     <t>공드리 (feat. 김예림)</t>
   </si>
   <si>
+    <t>풀어 (pour up) (Feat. ZICO)</t>
+  </si>
+  <si>
     <t>11:11</t>
   </si>
   <si>
@@ -1703,6 +1718,9 @@
   </si>
   <si>
     <t>https://image.bugsm.co.kr/album/images/50/200035/20003551.jpg?version=20180801142256.0</t>
+  </si>
+  <si>
+    <t>https://image.bugsm.co.kr/album/images/50/5545/554518.jpg?version=20161013002725.0</t>
   </si>
   <si>
     <t>https://image.bugsm.co.kr/album/images/50/3663/366370.jpg?version=20200506212004.0</t>
@@ -2199,7 +2217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2224,10 +2242,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2238,10 +2256,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2252,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2266,10 +2284,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2280,10 +2298,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2294,10 +2312,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2308,10 +2326,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2322,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2336,10 +2354,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2350,10 +2368,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2364,10 +2382,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2378,10 +2396,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2392,10 +2410,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2406,10 +2424,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2420,10 +2438,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2434,10 +2452,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2448,10 +2466,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2462,10 +2480,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2476,10 +2494,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2490,10 +2508,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2504,10 +2522,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2518,10 +2536,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2532,10 +2550,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2546,10 +2564,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2560,10 +2578,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2574,10 +2592,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2588,10 +2606,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2602,10 +2620,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2616,10 +2634,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2630,10 +2648,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2644,10 +2662,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2658,10 +2676,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2672,10 +2690,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2686,10 +2704,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2700,10 +2718,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2714,10 +2732,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2728,10 +2746,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2742,10 +2760,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2756,10 +2774,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2770,10 +2788,10 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2784,10 +2802,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2798,10 +2816,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2812,10 +2830,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2826,10 +2844,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2840,10 +2858,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2854,10 +2872,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2868,10 +2886,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2882,10 +2900,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2896,10 +2914,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2910,10 +2928,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2924,10 +2942,10 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2938,10 +2956,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2952,10 +2970,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2966,10 +2984,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2980,10 +2998,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2994,10 +3012,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3008,10 +3026,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3022,10 +3040,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3036,10 +3054,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3050,10 +3068,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3064,10 +3082,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3078,10 +3096,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3092,10 +3110,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3106,10 +3124,10 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3120,10 +3138,10 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3134,10 +3152,10 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3148,10 +3166,10 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3162,10 +3180,10 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3176,10 +3194,10 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3190,10 +3208,10 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3204,10 +3222,10 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3218,10 +3236,10 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3232,10 +3250,10 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3246,10 +3264,10 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3260,10 +3278,10 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3274,10 +3292,10 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3288,10 +3306,10 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3302,10 +3320,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3316,10 +3334,10 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3330,10 +3348,10 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3344,10 +3362,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3358,10 +3376,10 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3372,10 +3390,10 @@
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3386,10 +3404,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3400,10 +3418,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3414,10 +3432,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3428,10 +3446,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3442,10 +3460,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3456,10 +3474,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3470,10 +3488,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3484,10 +3502,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3498,10 +3516,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3512,10 +3530,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3526,10 +3544,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3540,10 +3558,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3554,10 +3572,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3568,10 +3586,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3582,10 +3600,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3596,10 +3614,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3610,10 +3628,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3624,10 +3642,10 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3638,10 +3656,10 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3652,10 +3670,10 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3666,10 +3684,10 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3680,10 +3698,10 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3694,10 +3712,10 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3708,10 +3726,10 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3722,10 +3740,10 @@
         <v>108</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3736,10 +3754,10 @@
         <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3750,10 +3768,10 @@
         <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3764,10 +3782,10 @@
         <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3778,10 +3796,10 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3792,10 +3810,10 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3806,10 +3824,10 @@
         <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3820,10 +3838,10 @@
         <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3834,10 +3852,10 @@
         <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3848,10 +3866,10 @@
         <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3862,10 +3880,10 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3876,10 +3894,10 @@
         <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3890,10 +3908,10 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3904,10 +3922,10 @@
         <v>121</v>
       </c>
       <c r="C122" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3918,10 +3936,10 @@
         <v>122</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3932,10 +3950,10 @@
         <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3946,10 +3964,10 @@
         <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3960,10 +3978,10 @@
         <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3974,10 +3992,10 @@
         <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3988,10 +4006,10 @@
         <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4002,10 +4020,10 @@
         <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4016,10 +4034,10 @@
         <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4030,10 +4048,10 @@
         <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4044,10 +4062,10 @@
         <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4058,10 +4076,10 @@
         <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4072,10 +4090,10 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4086,10 +4104,10 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4100,10 +4118,10 @@
         <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4114,10 +4132,10 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4128,10 +4146,10 @@
         <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4142,10 +4160,10 @@
         <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4156,10 +4174,10 @@
         <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4170,10 +4188,10 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4184,10 +4202,10 @@
         <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4198,10 +4216,10 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4212,10 +4230,10 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4226,10 +4244,10 @@
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4240,10 +4258,10 @@
         <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4254,10 +4272,10 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4265,13 +4283,13 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4279,13 +4297,13 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4293,13 +4311,13 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4307,13 +4325,13 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4321,13 +4339,13 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4335,13 +4353,13 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4349,13 +4367,13 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4363,13 +4381,13 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4377,13 +4395,13 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4391,13 +4409,13 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4405,13 +4423,13 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4419,13 +4437,13 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4433,13 +4451,13 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4447,13 +4465,13 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4461,13 +4479,13 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4475,13 +4493,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4489,13 +4507,13 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4503,13 +4521,13 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4517,13 +4535,13 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4531,13 +4549,13 @@
         <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4545,13 +4563,13 @@
         <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4559,615 +4577,629 @@
         <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B171" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B174" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B192" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>378</v>
+        <v>225</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>228</v>
+        <v>383</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
+        <v>218</v>
+      </c>
+      <c r="B212" t="s">
+        <v>211</v>
+      </c>
+      <c r="C212" t="s">
+        <v>399</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>219</v>
       </c>
-      <c r="B212" t="s">
-        <v>207</v>
-      </c>
-      <c r="C212" t="s">
-        <v>395</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>604</v>
+      <c r="B213" t="s">
+        <v>212</v>
+      </c>
+      <c r="C213" t="s">
+        <v>400</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -5383,6 +5415,7 @@
     <hyperlink ref="D210" r:id="rId209"/>
     <hyperlink ref="D211" r:id="rId210"/>
     <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
